--- a/limited_vocabulary/vitals_limited_vocab.xlsx
+++ b/limited_vocabulary/vitals_limited_vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavenchhikara/Desktop/projects/CLIF-1.0/limited_vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E93A7-4522-4244-B839-5FFA29388C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F20DEB-60D2-AB43-9007-06FBAC84A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{99335F6C-FD59-5C4E-9DBD-F1691645109A}"/>
   </bookViews>
@@ -74,10 +74,10 @@
     <t>blood_pressure</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>height</t>
+    <t>weight_kg</t>
+  </si>
+  <si>
+    <t>height_in</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
